--- a/Mifos Automation Excels/Client/2712-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DuringAPRADDTR2-DISTR20JAN-AccCL1FEB-RunPERON1FEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2712-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DuringAPRADDTR2-DISTR20JAN-AccCL1FEB-RunPERON1FEB-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="794" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="794" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Head Office</t>
   </si>
@@ -109,15 +109,9 @@
     <t>disburseloan</t>
   </si>
   <si>
-    <t>verifyrepayment</t>
-  </si>
-  <si>
     <t>EnterAccrualDate</t>
   </si>
   <si>
-    <t>validation.msg.periodicaccrual.execution.failed</t>
-  </si>
-  <si>
     <t>clickOnAccountEntry</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>Loan Balance</t>
   </si>
   <si>
-    <t>Repayment</t>
-  </si>
-  <si>
     <t>Accrual</t>
   </si>
   <si>
@@ -185,13 +173,16 @@
   </si>
   <si>
     <t>tranche2PrincipleAmount</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +199,22 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -230,27 +237,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -285,18 +277,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +596,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +695,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>14</v>
@@ -709,7 +703,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="9">
         <v>41654</v>
@@ -717,7 +711,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="7">
         <v>2000</v>
@@ -780,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,10 +851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +864,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9">
         <v>41671</v>
@@ -882,14 +876,6 @@
       </c>
       <c r="B2" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>14</v>
@@ -917,7 +903,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -925,7 +911,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
@@ -948,15 +934,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="14">
         <v>41701</v>
@@ -969,99 +955,107 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>529</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>41671</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="E2" s="16">
+        <v>37.32</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>37.32</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>525</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>41659</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>3502</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
-        <v>41680</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="16">
-        <v>500</v>
-      </c>
-      <c r="F2" s="16">
-        <v>457.94</v>
-      </c>
-      <c r="G2" s="16">
-        <v>42.06</v>
-      </c>
-      <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
-        <v>3669.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>3501</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17">
-        <v>41670</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="16">
-        <v>28.49</v>
+      <c r="E3" s="19">
+        <v>2000</v>
       </c>
       <c r="F3" s="16">
         <v>0</v>
       </c>
       <c r="G3" s="16">
-        <v>28.49</v>
+        <v>0</v>
       </c>
       <c r="H3" s="16">
         <v>0</v>
@@ -1069,31 +1063,33 @@
       <c r="I3" s="16">
         <v>0</v>
       </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="19">
+        <v>7000</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>3500</v>
+        <v>524</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17">
-        <v>41649</v>
+        <v>41654</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="16">
-        <v>14.79</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5000</v>
       </c>
       <c r="F4" s="16">
         <v>0</v>
       </c>
       <c r="G4" s="16">
-        <v>14.79</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16">
         <v>0</v>
@@ -1101,73 +1097,11 @@
       <c r="I4" s="16">
         <v>0</v>
       </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>3497</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17">
-        <v>41649</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="16">
-        <v>887.72</v>
-      </c>
-      <c r="F5" s="16">
-        <v>872.93</v>
-      </c>
-      <c r="G5" s="16">
-        <v>14.79</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>4127.07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>3496</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
-        <v>41640</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="J4" s="19">
         <v>5000</v>
       </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19">
-        <v>5000</v>
-      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
